--- a/cgf/file1.xlsx
+++ b/cgf/file1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>Даты</t>
   </si>
@@ -71,39 +71,24 @@
     <t>(Максимум 76 услуг, для увеличения обращайтесь к менеджеру)</t>
   </si>
   <si>
-    <t>Массаж:Массаж головы:1000</t>
-  </si>
-  <si>
-    <t>Массаж:Массаж тела:800</t>
-  </si>
-  <si>
-    <t>Даты должны быть уникальными, в случае пересечения они 
-станут красными</t>
-  </si>
-  <si>
-    <t>Будьте внимательны, копируя время</t>
-  </si>
-  <si>
-    <t>15.00,16.00,21.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">Пример для заполнения:
 Раздел:Название:цена 
 Массаж:Массаж головы:1000
 Массаж:Массаж тела:800
-Маникюр:Окрашивание ногтей:500 </t>
-  </si>
-  <si>
-    <t>Маникюр: Окрашивание лаком:500</t>
-  </si>
-  <si>
-    <t>Педикюр:Стрижка пальцев ног:8000</t>
-  </si>
-  <si>
-    <t>Маникюр:Стрижка пальцев рук:113</t>
-  </si>
-  <si>
-    <t>Педикюр:Стрижка губ:8000</t>
+Маникюр:Окрашевание ногтей:500 </t>
+  </si>
+  <si>
+    <t>Массаж:Массаж головы:1000</t>
+  </si>
+  <si>
+    <t>Массаж:Массаж тела:800</t>
+  </si>
+  <si>
+    <t>Маникюр: Окрашевание лаком:500</t>
+  </si>
+  <si>
+    <t>Даты и разделы услуг должны быть уникальными, в случае пересечения они 
+станут красными</t>
   </si>
 </sst>
 </file>
@@ -282,6 +267,9 @@
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -313,7 +301,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -620,7 +607,7 @@
   <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,489 +621,440 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>45047</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>13</v>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="E2" s="15"/>
-      <c r="G2" s="7" t="s">
-        <v>16</v>
+      <c r="G2" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>45048</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>11</v>
+      <c r="G3" s="10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>45049</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="14"/>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>12</v>
+      <c r="G4" s="10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>45050</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="14"/>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>17</v>
+      <c r="G5" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>45051</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="G6" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="B6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>45052</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="G7" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="B7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>45053</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="G8" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="B8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>45054</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="G9" s="9"/>
+      <c r="B9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>45055</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="G10" s="9"/>
+      <c r="B10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>45056</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" s="9"/>
+      <c r="B11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>45057</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="9"/>
+      <c r="B12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>45058</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="9"/>
+      <c r="B13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>45059</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="9"/>
+      <c r="B14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>45060</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="9"/>
+      <c r="B15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>45061</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="9"/>
+      <c r="B16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>45062</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" s="9"/>
+      <c r="B17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>45063</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" s="9"/>
+      <c r="B18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>45064</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="9"/>
+      <c r="B19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>45065</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" s="9"/>
+      <c r="B20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>45066</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="B21" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
         <v>45067</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>45068</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>45069</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>45070</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>45071</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>45072</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>45073</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>45074</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>45075</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>45076</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>45077</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G32" s="9"/>
+      <c r="B22" s="2"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="16"/>
-      <c r="G33" s="9"/>
+      <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
-      <c r="G34" s="9"/>
+      <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
-      <c r="G35" s="9"/>
+      <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G36" s="9"/>
+      <c r="G36" s="10"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G37" s="9"/>
+      <c r="G37" s="10"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G38" s="9"/>
+      <c r="G38" s="10"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G39" s="9"/>
+      <c r="G39" s="10"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G40" s="9"/>
+      <c r="G40" s="10"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G41" s="9"/>
+      <c r="G41" s="10"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G42" s="9"/>
+      <c r="G42" s="10"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G43" s="9"/>
+      <c r="G43" s="10"/>
     </row>
     <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G44" s="9"/>
+      <c r="G44" s="10"/>
     </row>
     <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G45" s="9"/>
+      <c r="G45" s="10"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G46" s="9"/>
+      <c r="G46" s="10"/>
     </row>
     <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G47" s="9"/>
+      <c r="G47" s="10"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G48" s="9"/>
+      <c r="G48" s="10"/>
     </row>
     <row r="49" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G49" s="9"/>
+      <c r="G49" s="10"/>
     </row>
     <row r="50" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G50" s="9"/>
+      <c r="G50" s="10"/>
     </row>
     <row r="51" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G51" s="9"/>
+      <c r="G51" s="10"/>
     </row>
     <row r="52" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G52" s="9"/>
+      <c r="G52" s="10"/>
     </row>
     <row r="53" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G53" s="9"/>
+      <c r="G53" s="10"/>
     </row>
     <row r="54" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G54" s="9"/>
+      <c r="G54" s="10"/>
     </row>
     <row r="55" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G55" s="9"/>
+      <c r="G55" s="10"/>
     </row>
     <row r="56" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G56" s="9"/>
+      <c r="G56" s="10"/>
     </row>
     <row r="57" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G57" s="9"/>
+      <c r="G57" s="10"/>
     </row>
     <row r="58" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G58" s="9"/>
+      <c r="G58" s="10"/>
     </row>
     <row r="59" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G59" s="9"/>
+      <c r="G59" s="10"/>
     </row>
     <row r="60" spans="7:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G60" s="9"/>
+      <c r="G60" s="10"/>
     </row>
     <row r="61" spans="7:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G61" s="1"/>
+      <c r="G61" s="2"/>
     </row>
     <row r="62" spans="7:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G62" s="1"/>
+      <c r="G62" s="2"/>
     </row>
     <row r="63" spans="7:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G63" s="1"/>
+      <c r="G63" s="2"/>
     </row>
     <row r="64" spans="7:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G64" s="1"/>
+      <c r="G64" s="2"/>
     </row>
     <row r="65" spans="7:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G65" s="1"/>
+      <c r="G65" s="2"/>
     </row>
     <row r="66" spans="7:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G66" s="1"/>
+      <c r="G66" s="2"/>
     </row>
     <row r="67" spans="7:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G67" s="1"/>
+      <c r="G67" s="2"/>
     </row>
     <row r="68" spans="7:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G68" s="1"/>
+      <c r="G68" s="2"/>
     </row>
     <row r="69" spans="7:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G69" s="1"/>
+      <c r="G69" s="2"/>
     </row>
     <row r="70" spans="7:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G70" s="1"/>
+      <c r="G70" s="2"/>
     </row>
     <row r="71" spans="7:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G71" s="1"/>
+      <c r="G71" s="2"/>
     </row>
     <row r="72" spans="7:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G72" s="1"/>
+      <c r="G72" s="2"/>
     </row>
     <row r="73" spans="7:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G73" s="1"/>
+      <c r="G73" s="2"/>
     </row>
     <row r="74" spans="7:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G74" s="1"/>
+      <c r="G74" s="2"/>
     </row>
     <row r="75" spans="7:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G75" s="1"/>
+      <c r="G75" s="2"/>
     </row>
     <row r="76" spans="7:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G76" s="1"/>
+      <c r="G76" s="2"/>
     </row>
     <row r="77" spans="7:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G77" s="1"/>
+      <c r="G77" s="2"/>
     </row>
     <row r="78" spans="7:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G78" s="1"/>
+      <c r="G78" s="2"/>
     </row>
     <row r="79" spans="7:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G79" s="1"/>
+      <c r="G79" s="2"/>
     </row>
     <row r="80" spans="7:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G80" s="10" t="s">
+      <c r="G80" s="11" t="s">
         <v>10</v>
       </c>
     </row>

--- a/cgf/file1.xlsx
+++ b/cgf/file1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Даты</t>
   </si>
@@ -87,7 +87,7 @@
     <t>Маникюр: Окрашевание лаком:500</t>
   </si>
   <si>
-    <t>Даты и разделы услуг должны быть уникальными, в случае пересечения они 
+    <t>Даты должны быть уникальными, в случае пересечения они 
 станут красными</t>
   </si>
 </sst>
@@ -320,7 +320,14 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -607,7 +614,7 @@
   <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,9 +710,7 @@
       <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E6" s="2"/>
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -729,128 +734,74 @@
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>45054</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>2</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
       <c r="E9" s="2"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>45055</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>2</v>
-      </c>
+    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
       <c r="E10" s="7"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>45056</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>2</v>
-      </c>
+    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>45057</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>2</v>
-      </c>
+    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>45058</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>2</v>
-      </c>
+    <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>45059</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>2</v>
-      </c>
+    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>45060</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>2</v>
-      </c>
+    <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>45061</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>2</v>
-      </c>
+    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>45062</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>2</v>
-      </c>
+    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>45063</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>2</v>
-      </c>
+    <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>45064</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>2</v>
-      </c>
+    <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>45065</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>2</v>
-      </c>
+    <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>45066</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>2</v>
-      </c>
+    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>45067</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="G22" s="10"/>
     </row>
@@ -1065,6 +1016,9 @@
     <mergeCell ref="A33:B35"/>
   </mergeCells>
   <conditionalFormatting sqref="A2:A32">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E9">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
